--- a/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01585714282857375</v>
+        <v>0.1805204829727294</v>
       </c>
       <c r="C2">
-        <v>0.509857142857147</v>
+        <v>0.9134701371387803</v>
       </c>
       <c r="D2">
-        <v>0.7211102856898252</v>
+        <v>2.313862988505206</v>
       </c>
       <c r="E2">
-        <v>0.8491821275143662</v>
+        <v>1.521138714419302</v>
       </c>
       <c r="F2">
-        <v>0.8810842845370415</v>
+        <v>1.567404881478029</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03015384612308066</v>
+        <v>0.1654443250838863</v>
       </c>
       <c r="C3">
-        <v>0.5436923076923115</v>
+        <v>0.8321534822147496</v>
       </c>
       <c r="D3">
-        <v>0.7563726153936579</v>
+        <v>2.430194309093069</v>
       </c>
       <c r="E3">
-        <v>0.8696968525835067</v>
+        <v>1.55890805023679</v>
       </c>
       <c r="F3">
-        <v>0.9046649330207549</v>
+        <v>1.613399420919432</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -490,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.07599999996667203</v>
+        <v>0.3342101850538108</v>
       </c>
       <c r="C4">
-        <v>0.5434999999833354</v>
+        <v>0.8990974440469651</v>
       </c>
       <c r="D4">
-        <v>0.7493536666647956</v>
+        <v>3.047122944578856</v>
       </c>
       <c r="E4">
-        <v>0.8656521626293067</v>
+        <v>1.745601026746621</v>
       </c>
       <c r="F4">
-        <v>0.9006528944977205</v>
+        <v>1.789492512149283</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -513,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.03072727276362949</v>
+        <v>0.349057914304527</v>
       </c>
       <c r="C5">
-        <v>0.4683636363454585</v>
+        <v>0.9234061813053621</v>
       </c>
       <c r="D5">
-        <v>0.6445221818379621</v>
+        <v>2.965460108284523</v>
       </c>
       <c r="E5">
-        <v>0.8028213885030481</v>
+        <v>1.722051134050474</v>
       </c>
       <c r="F5">
-        <v>0.8413892192089929</v>
+        <v>1.768609778560688</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -536,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1128000000399929</v>
+        <v>0.4342163702162936</v>
       </c>
       <c r="C6">
-        <v>0.4397999999800022</v>
+        <v>1.060274838210373</v>
       </c>
       <c r="D6">
-        <v>0.6350444000297577</v>
+        <v>3.344243897922033</v>
       </c>
       <c r="E6">
-        <v>0.7968967310949128</v>
+        <v>1.828727398471963</v>
       </c>
       <c r="F6">
-        <v>0.8315451213926567</v>
+        <v>1.872520595275618</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -559,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0852857142428645</v>
+        <v>-0.06951841543571383</v>
       </c>
       <c r="C7">
-        <v>0.1852857142428625</v>
+        <v>0.5087111458309537</v>
       </c>
       <c r="D7">
-        <v>0.04831699998237243</v>
+        <v>0.3139214969299044</v>
       </c>
       <c r="E7">
-        <v>0.2198112826548547</v>
+        <v>0.560286977298156</v>
       </c>
       <c r="F7">
-        <v>0.2188239126555102</v>
+        <v>0.5896819250247234</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05799999995000502</v>
+        <v>-0.04657217614193387</v>
       </c>
       <c r="C8">
-        <v>0.1379999999500118</v>
+        <v>0.7130288563221177</v>
       </c>
       <c r="D8">
-        <v>0.02129849998340295</v>
+        <v>0.6707611900940872</v>
       </c>
       <c r="E8">
-        <v>0.1459400561306009</v>
+        <v>0.8190001160525481</v>
       </c>
       <c r="F8">
-        <v>0.1546372097920479</v>
+        <v>0.8957179617514601</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,18 +608,41 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1449999999000156</v>
+        <v>-0.3788153344042176</v>
       </c>
       <c r="C9">
-        <v>0.1449999999000156</v>
+        <v>0.3788153344042176</v>
       </c>
       <c r="D9">
-        <v>0.02102499997100452</v>
+        <v>0.2155603798649167</v>
       </c>
       <c r="E9">
-        <v>0.1449999999000156</v>
+        <v>0.4642848046887995</v>
+      </c>
+      <c r="F9">
+        <v>0.3287688906020555</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.410128014204804</v>
+      </c>
+      <c r="C10">
+        <v>0.410128014204804</v>
+      </c>
+      <c r="D10">
+        <v>0.168204988035576</v>
+      </c>
+      <c r="E10">
+        <v>0.410128014204804</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -447,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1805204829727294</v>
+        <v>-0.04774544758327767</v>
       </c>
       <c r="C2">
-        <v>0.9134701371387803</v>
+        <v>0.4624696470792148</v>
       </c>
       <c r="D2">
-        <v>2.313862988505206</v>
+        <v>0.8033151732794445</v>
       </c>
       <c r="E2">
-        <v>1.521138714419302</v>
+        <v>0.8962785132309289</v>
       </c>
       <c r="F2">
-        <v>1.567404881478029</v>
+        <v>0.9287915074979147</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -470,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1654443250838863</v>
+        <v>-0.04718447073015461</v>
       </c>
       <c r="C3">
-        <v>0.8321534822147496</v>
+        <v>0.5635575896698916</v>
       </c>
       <c r="D3">
-        <v>2.430194309093069</v>
+        <v>0.8690252791348545</v>
       </c>
       <c r="E3">
-        <v>1.55890805023679</v>
+        <v>0.9322152536484557</v>
       </c>
       <c r="F3">
-        <v>1.613399420919432</v>
+        <v>0.9690367108258421</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -493,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3342101850538108</v>
+        <v>-0.03314431376102876</v>
       </c>
       <c r="C4">
-        <v>0.8990974440469651</v>
+        <v>0.5287269987382343</v>
       </c>
       <c r="D4">
-        <v>3.047122944578856</v>
+        <v>0.6606252920084058</v>
       </c>
       <c r="E4">
-        <v>1.745601026746621</v>
+        <v>0.8127885899841396</v>
       </c>
       <c r="F4">
-        <v>1.789492512149283</v>
+        <v>0.8482238639804189</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -516,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.349057914304527</v>
+        <v>-0.1426010309797199</v>
       </c>
       <c r="C5">
-        <v>0.9234061813053621</v>
+        <v>0.5484211637281492</v>
       </c>
       <c r="D5">
-        <v>2.965460108284523</v>
+        <v>0.6964982596166069</v>
       </c>
       <c r="E5">
-        <v>1.722051134050474</v>
+        <v>0.8345647126596037</v>
       </c>
       <c r="F5">
-        <v>1.768609778560688</v>
+        <v>0.862426533762813</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -539,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4342163702162936</v>
+        <v>-0.2189447014214337</v>
       </c>
       <c r="C6">
-        <v>1.060274838210373</v>
+        <v>0.5233672663903658</v>
       </c>
       <c r="D6">
-        <v>3.344243897922033</v>
+        <v>0.6294409302107248</v>
       </c>
       <c r="E6">
-        <v>1.828727398471963</v>
+        <v>0.7933731342884789</v>
       </c>
       <c r="F6">
-        <v>1.872520595275618</v>
+        <v>0.8038132369664293</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -562,19 +562,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.06951841543571383</v>
+        <v>0.05889770248139205</v>
       </c>
       <c r="C7">
-        <v>0.5087111458309537</v>
+        <v>0.3795808076999097</v>
       </c>
       <c r="D7">
-        <v>0.3139214969299044</v>
+        <v>0.2585567114336377</v>
       </c>
       <c r="E7">
-        <v>0.560286977298156</v>
+        <v>0.5084847209441379</v>
       </c>
       <c r="F7">
-        <v>0.5896819250247234</v>
+        <v>0.5356993033274895</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -585,19 +585,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.04657217614193387</v>
+        <v>-0.01074580271062597</v>
       </c>
       <c r="C8">
-        <v>0.7130288563221177</v>
+        <v>0.4136063680922605</v>
       </c>
       <c r="D8">
-        <v>0.6707611900940872</v>
+        <v>0.2412788381939795</v>
       </c>
       <c r="E8">
-        <v>0.8190001160525481</v>
+        <v>0.4912014232409954</v>
       </c>
       <c r="F8">
-        <v>0.8957179617514601</v>
+        <v>0.5379554248278389</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -608,19 +608,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.3788153344042176</v>
+        <v>0.1748454189159413</v>
       </c>
       <c r="C9">
-        <v>0.3788153344042176</v>
+        <v>0.4191804083912449</v>
       </c>
       <c r="D9">
-        <v>0.2155603798649167</v>
+        <v>0.2366906289677956</v>
       </c>
       <c r="E9">
-        <v>0.4642848046887995</v>
+        <v>0.4865086114014793</v>
       </c>
       <c r="F9">
-        <v>0.3287688906020555</v>
+        <v>0.556039173689999</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -631,16 +631,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.410128014204804</v>
+        <v>0.7444949522781628</v>
       </c>
       <c r="C10">
-        <v>0.410128014204804</v>
+        <v>0.7444949522781628</v>
       </c>
       <c r="D10">
-        <v>0.168204988035576</v>
+        <v>0.5542727339676639</v>
       </c>
       <c r="E10">
-        <v>0.410128014204804</v>
+        <v>0.7444949522781628</v>
       </c>
       <c r="G10">
         <v>1</v>

--- a/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.04774544758327767</v>
+        <v>-0.03905235774959507</v>
       </c>
       <c r="C2">
-        <v>0.4624696470792148</v>
+        <v>0.4387070408530346</v>
       </c>
       <c r="D2">
-        <v>0.8033151732794445</v>
+        <v>0.45142052592237</v>
       </c>
       <c r="E2">
-        <v>0.8962785132309289</v>
+        <v>0.6718783564919844</v>
       </c>
       <c r="F2">
-        <v>0.9287915074979147</v>
+        <v>0.6774166724122599</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04718447073015461</v>
+        <v>0.0876619451090646</v>
       </c>
       <c r="C3">
-        <v>0.5635575896698916</v>
+        <v>0.4671253201736847</v>
       </c>
       <c r="D3">
-        <v>0.8690252791348545</v>
+        <v>0.4722669860490882</v>
       </c>
       <c r="E3">
-        <v>0.9322152536484557</v>
+        <v>0.6872168406326261</v>
       </c>
       <c r="F3">
-        <v>0.9690367108258421</v>
+        <v>0.6885227972073756</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.03314431376102876</v>
+        <v>-0.02200267238528682</v>
       </c>
       <c r="C4">
-        <v>0.5287269987382343</v>
+        <v>0.4595796052308628</v>
       </c>
       <c r="D4">
-        <v>0.6606252920084058</v>
+        <v>0.413274940495816</v>
       </c>
       <c r="E4">
-        <v>0.8127885899841396</v>
+        <v>0.642864636214978</v>
       </c>
       <c r="F4">
-        <v>0.8482238639804189</v>
+        <v>0.6491460788714786</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1426010309797199</v>
+        <v>0.1002432192375009</v>
       </c>
       <c r="C5">
-        <v>0.5484211637281492</v>
+        <v>0.5011266898800307</v>
       </c>
       <c r="D5">
-        <v>0.6964982596166069</v>
+        <v>0.4866691161701831</v>
       </c>
       <c r="E5">
-        <v>0.8345647126596037</v>
+        <v>0.6976167401734158</v>
       </c>
       <c r="F5">
-        <v>0.862426533762813</v>
+        <v>0.6976827882510105</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.2189447014214337</v>
+        <v>0.02274536467644276</v>
       </c>
       <c r="C6">
-        <v>0.5233672663903658</v>
+        <v>0.4979849786295887</v>
       </c>
       <c r="D6">
-        <v>0.6294409302107248</v>
+        <v>0.4567703583966128</v>
       </c>
       <c r="E6">
-        <v>0.7933731342884789</v>
+        <v>0.6758478811068456</v>
       </c>
       <c r="F6">
-        <v>0.8038132369664293</v>
+        <v>0.6827675668981734</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05889770248139205</v>
+        <v>0.092078373345108</v>
       </c>
       <c r="C7">
-        <v>0.3795808076999097</v>
+        <v>0.5065592491403523</v>
       </c>
       <c r="D7">
-        <v>0.2585567114336377</v>
+        <v>0.4958636947812035</v>
       </c>
       <c r="E7">
-        <v>0.5084847209441379</v>
+        <v>0.7041758976145118</v>
       </c>
       <c r="F7">
-        <v>0.5356993033274895</v>
+        <v>0.7058442120435615</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.01074580271062597</v>
+        <v>0.03822042347955541</v>
       </c>
       <c r="C8">
-        <v>0.4136063680922605</v>
+        <v>0.5402057006093556</v>
       </c>
       <c r="D8">
-        <v>0.2412788381939795</v>
+        <v>0.4987337210178167</v>
       </c>
       <c r="E8">
-        <v>0.4912014232409954</v>
+        <v>0.7062108191027781</v>
       </c>
       <c r="F8">
-        <v>0.5379554248278389</v>
+        <v>0.7131441491908896</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1748454189159413</v>
+        <v>0.1352597487784972</v>
       </c>
       <c r="C9">
-        <v>0.4191804083912449</v>
+        <v>0.5335606825057502</v>
       </c>
       <c r="D9">
-        <v>0.2366906289677956</v>
+        <v>0.501733990090413</v>
       </c>
       <c r="E9">
-        <v>0.4865086114014793</v>
+        <v>0.70833183614067</v>
       </c>
       <c r="F9">
-        <v>0.556039173689999</v>
+        <v>0.7033360171492812</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,19 +634,45 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.7444949522781628</v>
+        <v>0.05955804992731925</v>
       </c>
       <c r="C10">
-        <v>0.7444949522781628</v>
+        <v>0.54934389505087</v>
       </c>
       <c r="D10">
-        <v>0.5542727339676639</v>
+        <v>0.4945675297751405</v>
       </c>
       <c r="E10">
-        <v>0.7444949522781628</v>
+        <v>0.7032549536086756</v>
+      </c>
+      <c r="F10">
+        <v>0.7090213886885923</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.1423836843877604</v>
+      </c>
+      <c r="C11">
+        <v>0.5466645995897268</v>
+      </c>
+      <c r="D11">
+        <v>0.4954308102877077</v>
+      </c>
+      <c r="E11">
+        <v>0.7038684609269744</v>
+      </c>
+      <c r="F11">
+        <v>0.6976724939559396</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.03905235774959507</v>
+        <v>0.2209588364395597</v>
       </c>
       <c r="C2">
-        <v>0.4387070408530346</v>
+        <v>0.4809798798281603</v>
       </c>
       <c r="D2">
-        <v>0.45142052592237</v>
+        <v>0.4105429204137862</v>
       </c>
       <c r="E2">
-        <v>0.6718783564919844</v>
+        <v>0.640736233105157</v>
       </c>
       <c r="F2">
-        <v>0.6774166724122599</v>
+        <v>0.6087220669516331</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0876619451090646</v>
+        <v>0.02863981460692326</v>
       </c>
       <c r="C3">
-        <v>0.4671253201736847</v>
+        <v>0.4569463959652514</v>
       </c>
       <c r="D3">
-        <v>0.4722669860490882</v>
+        <v>0.3846277506495038</v>
       </c>
       <c r="E3">
-        <v>0.6872168406326261</v>
+        <v>0.6201836426813463</v>
       </c>
       <c r="F3">
-        <v>0.6885227972073756</v>
+        <v>0.6272182231572233</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02200267238528682</v>
+        <v>0.1936854491052489</v>
       </c>
       <c r="C4">
-        <v>0.4595796052308628</v>
+        <v>0.4757558206508753</v>
       </c>
       <c r="D4">
-        <v>0.413274940495816</v>
+        <v>0.4120852984366939</v>
       </c>
       <c r="E4">
-        <v>0.642864636214978</v>
+        <v>0.6419387030213196</v>
       </c>
       <c r="F4">
-        <v>0.6491460788714786</v>
+        <v>0.6198190349974922</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1002432192375009</v>
+        <v>0.04938534500615049</v>
       </c>
       <c r="C5">
-        <v>0.5011266898800307</v>
+        <v>0.4815667771394883</v>
       </c>
       <c r="D5">
-        <v>0.4866691161701831</v>
+        <v>0.4068672093313941</v>
       </c>
       <c r="E5">
-        <v>0.6976167401734158</v>
+        <v>0.6378614342718911</v>
       </c>
       <c r="F5">
-        <v>0.6976827882510105</v>
+        <v>0.6442601547138083</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02274536467644276</v>
+        <v>0.1962010372968331</v>
       </c>
       <c r="C6">
-        <v>0.4979849786295887</v>
+        <v>0.5025474175351191</v>
       </c>
       <c r="D6">
-        <v>0.4567703583966128</v>
+        <v>0.4435532101199133</v>
       </c>
       <c r="E6">
-        <v>0.6758478811068456</v>
+        <v>0.6659979054921369</v>
       </c>
       <c r="F6">
-        <v>0.6827675668981734</v>
+        <v>0.6449851830934898</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.092078373345108</v>
+        <v>0.08806700416235531</v>
       </c>
       <c r="C7">
-        <v>0.5065592491403523</v>
+        <v>0.491124900856406</v>
       </c>
       <c r="D7">
-        <v>0.4958636947812035</v>
+        <v>0.4101026362846906</v>
       </c>
       <c r="E7">
-        <v>0.7041758976145118</v>
+        <v>0.6403925642015924</v>
       </c>
       <c r="F7">
-        <v>0.7058442120435615</v>
+        <v>0.6430576491634551</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03822042347955541</v>
+        <v>0.1614104346065955</v>
       </c>
       <c r="C8">
-        <v>0.5402057006093556</v>
+        <v>0.4938957888017228</v>
       </c>
       <c r="D8">
-        <v>0.4987337210178167</v>
+        <v>0.4458511905737079</v>
       </c>
       <c r="E8">
-        <v>0.7062108191027781</v>
+        <v>0.6677208927191869</v>
       </c>
       <c r="F8">
-        <v>0.7131441491908896</v>
+        <v>0.657108885046729</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1352597487784972</v>
+        <v>0.07816625056257342</v>
       </c>
       <c r="C9">
-        <v>0.5335606825057502</v>
+        <v>0.5207012812240953</v>
       </c>
       <c r="D9">
-        <v>0.501733990090413</v>
+        <v>0.4341256565743806</v>
       </c>
       <c r="E9">
-        <v>0.70833183614067</v>
+        <v>0.6588821264644994</v>
       </c>
       <c r="F9">
-        <v>0.7033360171492812</v>
+        <v>0.6637803783822126</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.05955804992731925</v>
+        <v>0.1705354281393297</v>
       </c>
       <c r="C10">
-        <v>0.54934389505087</v>
+        <v>0.5116377312545397</v>
       </c>
       <c r="D10">
-        <v>0.4945675297751405</v>
+        <v>0.4626856766095047</v>
       </c>
       <c r="E10">
-        <v>0.7032549536086756</v>
+        <v>0.6802100238966673</v>
       </c>
       <c r="F10">
-        <v>0.7090213886885923</v>
+        <v>0.6683882402035821</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1423836843877604</v>
+        <v>0.05325839054106861</v>
       </c>
       <c r="C11">
-        <v>0.5466645995897268</v>
+        <v>0.5136449649815871</v>
       </c>
       <c r="D11">
-        <v>0.4954308102877077</v>
+        <v>0.4286940646171506</v>
       </c>
       <c r="E11">
-        <v>0.7038684609269744</v>
+        <v>0.6547473288354453</v>
       </c>
       <c r="F11">
-        <v>0.6976724939559396</v>
+        <v>0.6626957512451073</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2209588364395597</v>
+        <v>0.2109899894693604</v>
       </c>
       <c r="C2">
-        <v>0.4809798798281603</v>
+        <v>0.6674624635798462</v>
       </c>
       <c r="D2">
-        <v>0.4105429204137862</v>
+        <v>1.146324606009462</v>
       </c>
       <c r="E2">
-        <v>0.640736233105157</v>
+        <v>1.070665496786677</v>
       </c>
       <c r="F2">
-        <v>0.6087220669516331</v>
+        <v>1.060115081941694</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02863981460692326</v>
+        <v>0.04764615694829157</v>
       </c>
       <c r="C3">
-        <v>0.4569463959652514</v>
+        <v>0.6468917687613973</v>
       </c>
       <c r="D3">
-        <v>0.3846277506495038</v>
+        <v>1.115891656663563</v>
       </c>
       <c r="E3">
-        <v>0.6201836426813463</v>
+        <v>1.056357731388171</v>
       </c>
       <c r="F3">
-        <v>0.6272182231572233</v>
+        <v>1.065996467999481</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1936854491052489</v>
+        <v>0.180187109103845</v>
       </c>
       <c r="C4">
-        <v>0.4757558206508753</v>
+        <v>0.6632043662894834</v>
       </c>
       <c r="D4">
-        <v>0.4120852984366939</v>
+        <v>1.225949235404478</v>
       </c>
       <c r="E4">
-        <v>0.6419387030213196</v>
+        <v>1.107225918864112</v>
       </c>
       <c r="F4">
-        <v>0.6198190349974922</v>
+        <v>1.103787138057222</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.04938534500615049</v>
+        <v>0.07615678762443598</v>
       </c>
       <c r="C5">
-        <v>0.4815667771394883</v>
+        <v>0.6620181254576488</v>
       </c>
       <c r="D5">
-        <v>0.4068672093313941</v>
+        <v>1.170276897532463</v>
       </c>
       <c r="E5">
-        <v>0.6378614342718911</v>
+        <v>1.081793370996727</v>
       </c>
       <c r="F5">
-        <v>0.6442601547138083</v>
+        <v>1.09052883890864</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1962010372968331</v>
+        <v>0.2025961841127114</v>
       </c>
       <c r="C6">
-        <v>0.5025474175351191</v>
+        <v>0.6844678659950388</v>
       </c>
       <c r="D6">
-        <v>0.4435532101199133</v>
+        <v>1.26979498242243</v>
       </c>
       <c r="E6">
-        <v>0.6659979054921369</v>
+        <v>1.126851801446149</v>
       </c>
       <c r="F6">
-        <v>0.6449851830934898</v>
+        <v>1.120473881934256</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.08806700416235531</v>
+        <v>0.1266154959818119</v>
       </c>
       <c r="C7">
-        <v>0.491124900856406</v>
+        <v>0.7096750047091113</v>
       </c>
       <c r="D7">
-        <v>0.4101026362846906</v>
+        <v>1.266381423283964</v>
       </c>
       <c r="E7">
-        <v>0.6403925642015924</v>
+        <v>1.125336137909009</v>
       </c>
       <c r="F7">
-        <v>0.6430576491634551</v>
+        <v>1.130546546441805</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1614104346065955</v>
+        <v>0.207816168082475</v>
       </c>
       <c r="C8">
-        <v>0.4938957888017228</v>
+        <v>0.6898342590982535</v>
       </c>
       <c r="D8">
-        <v>0.4458511905737079</v>
+        <v>1.300194904219919</v>
       </c>
       <c r="E8">
-        <v>0.6677208927191869</v>
+        <v>1.140260893050323</v>
       </c>
       <c r="F8">
-        <v>0.657108885046729</v>
+        <v>1.133832303844863</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.07816625056257342</v>
+        <v>0.1544485185314101</v>
       </c>
       <c r="C9">
-        <v>0.5207012812240953</v>
+        <v>0.6857633549525511</v>
       </c>
       <c r="D9">
-        <v>0.4341256565743806</v>
+        <v>1.282012191810668</v>
       </c>
       <c r="E9">
-        <v>0.6588821264644994</v>
+        <v>1.132259772230148</v>
       </c>
       <c r="F9">
-        <v>0.6637803783822126</v>
+        <v>1.134644143221363</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1705354281393297</v>
+        <v>0.247847795596123</v>
       </c>
       <c r="C10">
-        <v>0.5116377312545397</v>
+        <v>0.7276208176551816</v>
       </c>
       <c r="D10">
-        <v>0.4626856766095047</v>
+        <v>1.343790227660096</v>
       </c>
       <c r="E10">
-        <v>0.6802100238966673</v>
+        <v>1.159219663247693</v>
       </c>
       <c r="F10">
-        <v>0.6683882402035821</v>
+        <v>1.145815918573438</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.05325839054106861</v>
+        <v>0.181604934442979</v>
       </c>
       <c r="C11">
-        <v>0.5136449649815871</v>
+        <v>0.7108858875923681</v>
       </c>
       <c r="D11">
-        <v>0.4286940646171506</v>
+        <v>1.353190151552467</v>
       </c>
       <c r="E11">
-        <v>0.6547473288354453</v>
+        <v>1.163267016446554</v>
       </c>
       <c r="F11">
-        <v>0.6626957512451073</v>
+        <v>1.162931656782411</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1266154959818119</v>
+        <v>0.1838799416186027</v>
       </c>
       <c r="C7">
-        <v>0.7096750047091113</v>
+        <v>0.7695350798161764</v>
       </c>
       <c r="D7">
-        <v>1.266381423283964</v>
+        <v>1.48474280445927</v>
       </c>
       <c r="E7">
-        <v>1.125336137909009</v>
+        <v>1.218500227517119</v>
       </c>
       <c r="F7">
-        <v>1.130546546441805</v>
+        <v>1.220715086378263</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.207816168082475</v>
+        <v>0.2202601043985484</v>
       </c>
       <c r="C8">
-        <v>0.6898342590982535</v>
+        <v>0.7025675926365696</v>
       </c>
       <c r="D8">
-        <v>1.300194904219919</v>
+        <v>1.450233190988454</v>
       </c>
       <c r="E8">
-        <v>1.140260893050323</v>
+        <v>1.204256281274237</v>
       </c>
       <c r="F8">
-        <v>1.133832303844863</v>
+        <v>1.200273013662533</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1544485185314101</v>
+        <v>0.05458795430075868</v>
       </c>
       <c r="C9">
-        <v>0.6857633549525511</v>
+        <v>0.6814427688448653</v>
       </c>
       <c r="D9">
-        <v>1.282012191810668</v>
+        <v>0.8599296228729056</v>
       </c>
       <c r="E9">
-        <v>1.132259772230148</v>
+        <v>0.9273239039693227</v>
       </c>
       <c r="F9">
-        <v>1.134644143221363</v>
+        <v>0.9497643907933797</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.247847795596123</v>
+        <v>0.3270187541837685</v>
       </c>
       <c r="C10">
-        <v>0.7276208176551816</v>
+        <v>0.5806918712726016</v>
       </c>
       <c r="D10">
-        <v>1.343790227660096</v>
+        <v>0.7433548639178584</v>
       </c>
       <c r="E10">
-        <v>1.159219663247693</v>
+        <v>0.8621802966420994</v>
       </c>
       <c r="F10">
-        <v>1.145815918573438</v>
+        <v>0.8303300939129272</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.181604934442979</v>
+        <v>0.2613329855841933</v>
       </c>
       <c r="C11">
-        <v>0.7108858875923681</v>
+        <v>0.4854844728135347</v>
       </c>
       <c r="D11">
-        <v>1.353190151552467</v>
+        <v>0.3301213188269617</v>
       </c>
       <c r="E11">
-        <v>1.163267016446554</v>
+        <v>0.5745618494356911</v>
       </c>
       <c r="F11">
-        <v>1.162931656782411</v>
+        <v>0.5720865204151965</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
